--- a/Data Files/Datos.xlsx
+++ b/Data Files/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jefferson\Katalon Studio\Neocredito\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D9C3A4-ABF0-42CB-A434-CAABE5A5B903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC80A894-47FD-4F03-A93E-0AC4A33A015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="1440" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="1440" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrearPersonaNatural" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Perez</t>
   </si>
   <si>
-    <t>correoz@yopmail.com</t>
-  </si>
-  <si>
     <t>Mi123123@</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Galindo</t>
   </si>
   <si>
-    <t>correoy@yopmail.com</t>
-  </si>
-  <si>
     <t>Fecha Expedicion</t>
   </si>
   <si>
@@ -219,6 +213,12 @@
   </si>
   <si>
     <t>correo4@yopmail.com</t>
+  </si>
+  <si>
+    <t>correo28@yopmail.com</t>
+  </si>
+  <si>
+    <t>correo55@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>50989741</v>
+        <v>509895454</v>
       </c>
       <c r="H2">
         <v>1231231123</v>
@@ -647,10 +647,10 @@
         <v>21121211</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E4B832-F8E1-4464-9F1C-EE815351468E}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P1" sqref="O1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,13 +694,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -712,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>2020210102</v>
+        <v>202029999</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -765,25 +765,25 @@
         <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
       <c r="L2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>565656741</v>
+        <v>565656565</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -792,10 +792,10 @@
         <v>3105577112</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -836,57 +836,57 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -895,7 +895,7 @@
         <v>25899</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEA4DB6-2F6D-4CD8-8003-5E8D2CE8D322}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -977,7 +977,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -986,45 +986,45 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I2">
         <v>32123123123</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2">
         <v>25</v>
@@ -1066,7 +1066,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -1101,28 +1101,28 @@
         <v>8909038523</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>32123123123</v>

--- a/Data Files/Datos.xlsx
+++ b/Data Files/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jefferson\Katalon Studio\Neocredito\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC80A894-47FD-4F03-A93E-0AC4A33A015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82483E-CD39-4D63-AF6D-371A97EC413D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="1440" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrearPersonaNatural" sheetId="1" r:id="rId1"/>
@@ -218,14 +218,14 @@
     <t>correo28@yopmail.com</t>
   </si>
   <si>
-    <t>correo55@yopmail.com</t>
+    <t>correo73@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +240,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,10 +269,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -667,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E4B832-F8E1-4464-9F1C-EE815351468E}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>202029999</v>
+        <v>202025791</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -783,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="M2">
-        <v>565656565</v>
+        <v>854745548</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -812,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EF3370-549C-48D6-BA93-CC6C7661EA2B}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +838,7 @@
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -889,10 +896,10 @@
         <v>43</v>
       </c>
       <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>25899</v>
+        <v>999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25000</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>

--- a/Data Files/Datos.xlsx
+++ b/Data Files/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jefferson\Katalon Studio\Neocredito\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82483E-CD39-4D63-AF6D-371A97EC413D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E073C6C3-1BF0-4885-9BEC-9763AC0138EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="1935" windowWidth="21600" windowHeight="10635" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrearPersonaNatural" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>Primer Nombre</t>
   </si>
@@ -74,12 +74,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>Antonia</t>
-  </si>
-  <si>
     <t>Lopez</t>
   </si>
   <si>
@@ -104,18 +98,12 @@
     <t>1: Representante legal</t>
   </si>
   <si>
-    <t>Smartsoft</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
     <t>Manuel</t>
   </si>
   <si>
-    <t>Rocha</t>
-  </si>
-  <si>
     <t>Galindo</t>
   </si>
   <si>
@@ -191,9 +179,6 @@
     <t>Ingeniero</t>
   </si>
   <si>
-    <t>correo3@yopmail.com</t>
-  </si>
-  <si>
     <t>320123123123</t>
   </si>
   <si>
@@ -206,26 +191,44 @@
     <t>Municipio</t>
   </si>
   <si>
-    <t>La Mesa</t>
-  </si>
-  <si>
-    <t>320123123</t>
-  </si>
-  <si>
-    <t>correo4@yopmail.com</t>
-  </si>
-  <si>
-    <t>correo28@yopmail.com</t>
-  </si>
-  <si>
-    <t>correo73@yopmail.com</t>
+    <t>01/01/1993</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>juan.lopez@yopmail.com</t>
+  </si>
+  <si>
+    <t>Americano</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>andres.torres@yopmail.com</t>
+  </si>
+  <si>
+    <t>1070590638</t>
+  </si>
+  <si>
+    <t>juan.luna@yopmail.com</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>jesus.luna@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,12 +243,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,11 +266,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -558,7 +554,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,16 +617,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -639,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>509895454</v>
+        <v>1070420580</v>
       </c>
       <c r="H2">
-        <v>1231231123</v>
+        <v>3107579936</v>
       </c>
       <c r="I2">
         <v>112</v>
@@ -654,10 +650,10 @@
         <v>21121211</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -674,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E4B832-F8E1-4464-9F1C-EE815351468E}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,13 +697,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -719,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -754,13 +750,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>202025791</v>
+        <v>899999114</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>2020</v>
@@ -772,25 +768,25 @@
         <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2">
-        <v>854745548</v>
+        <v>1070450820</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -799,10 +795,10 @@
         <v>3105577112</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -819,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EF3370-549C-48D6-BA93-CC6C7661EA2B}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,66 +839,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2">
         <v>999999</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>25000</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -932,7 +928,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +942,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -993,51 +989,51 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2">
         <v>32123123123</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>999999</v>
       </c>
       <c r="L2">
-        <v>25203</v>
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
@@ -1053,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E280F318-2139-49D6-A2E3-7C201FB80F0A}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1069,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1094,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -1105,31 +1101,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8909038523</v>
+        <v>8600343137</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J2">
         <v>32123123123</v>

--- a/Data Files/Datos.xlsx
+++ b/Data Files/Datos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jefferson\Katalon Studio\Neocredito\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEFFERSON RODRIGUEZ\Documents\Katalon Studio\Neocredito\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E073C6C3-1BF0-4885-9BEC-9763AC0138EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="1935" windowWidth="21600" windowHeight="10635" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="1935" windowWidth="21600" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="CrearPersonaNatural" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Primer Nombre</t>
   </si>
@@ -197,9 +196,6 @@
     <t>Antonio</t>
   </si>
   <si>
-    <t>juan.lopez@yopmail.com</t>
-  </si>
-  <si>
     <t>Americano</t>
   </si>
   <si>
@@ -207,9 +203,6 @@
   </si>
   <si>
     <t>Miguel</t>
-  </si>
-  <si>
-    <t>andres.torres@yopmail.com</t>
   </si>
   <si>
     <t>1070590638</t>
@@ -227,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +563,7 @@
     <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -635,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>1070420580</v>
+        <v>1070420584</v>
       </c>
       <c r="H2">
         <v>3107579936</v>
@@ -649,8 +642,9 @@
       <c r="K2">
         <v>21121211</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>55</v>
+      <c r="L2" s="1" t="str">
+        <f>CONCATENATE(A2,".",C2,G2,"@yopmail.com")</f>
+        <v>Juan.Lopez1070420584@yopmail.com</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>16</v>
@@ -658,8 +652,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{2545CB88-884B-470F-9EED-E7459BCF8967}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{11E017C7-46E4-49A0-B9C2-3936D90698A9}"/>
+    <hyperlink ref="L2" r:id="rId1" display="juan.lopez1@yopmail.com"/>
+    <hyperlink ref="M2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -667,11 +661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E4B832-F8E1-4464-9F1C-EE815351468E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +744,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>899999114</v>
@@ -771,10 +765,10 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
         <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -794,8 +788,9 @@
       <c r="O2">
         <v>3105577112</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>59</v>
+      <c r="P2" s="1" t="str">
+        <f>CONCATENATE(A2,B2,"@yopmail.com")</f>
+        <v>Americano899999114@yopmail.com</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>16</v>
@@ -803,8 +798,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{34895065-44A2-49DE-9CBC-3EFBC2524573}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{1966064E-A502-4966-BB07-4AF7ACC7F8AA}"/>
+    <hyperlink ref="P2" r:id="rId1" display="andres.torres@yopmail.com"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -812,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EF3370-549C-48D6-BA93-CC6C7661EA2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -938,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEA4DB6-2F6D-4CD8-8003-5E8D2CE8D322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1015,19 +1010,19 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I2">
         <v>32123123123</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K2">
         <v>999999</v>
@@ -1038,7 +1033,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{358617FA-BB82-44E0-A019-31B832AAF7CB}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1046,11 +1041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E280F318-2139-49D6-A2E3-7C201FB80F0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1120,7 @@
         <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2">
         <v>32123123123</v>
@@ -1133,7 +1128,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{23F1954D-8724-4051-9EA9-F1A3E86972BB}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1141,7 +1136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2DE60F-F5FA-4EEB-917E-F1FA0F90AC96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data Files/Datos.xlsx
+++ b/Data Files/Datos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEFFERSON RODRIGUEZ\Documents\Katalon Studio\Neocredito\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jefferson\Katalon Studio\Neocredito\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F678C0FD-679E-4150-8880-099B67428A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="1935" windowWidth="21600" windowHeight="10635"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrearPersonaNatural" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,24 @@
     <sheet name="CrearIntermediario" sheetId="5" r:id="rId5"/>
     <sheet name="CrearPropuesta" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>Primer Nombre</t>
   </si>
@@ -73,9 +81,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Lopez</t>
-  </si>
-  <si>
     <t>Perez</t>
   </si>
   <si>
@@ -193,9 +198,6 @@
     <t>01/01/1993</t>
   </si>
   <si>
-    <t>Antonio</t>
-  </si>
-  <si>
     <t>Americano</t>
   </si>
   <si>
@@ -215,12 +217,36 @@
   </si>
   <si>
     <t>jesus.luna@yopmail.com</t>
+  </si>
+  <si>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>Rut</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Katalon123@</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>correo2@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,14 +586,15 @@
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,33 +620,36 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -628,32 +658,34 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>1070420584</v>
+        <v>40205060</v>
       </c>
       <c r="H2">
         <v>3107579936</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2">
         <v>112</v>
       </c>
-      <c r="J2">
-        <v>2020</v>
-      </c>
       <c r="K2">
+        <v>2022</v>
+      </c>
+      <c r="L2">
         <v>21121211</v>
       </c>
-      <c r="L2" s="1" t="str">
-        <f>CONCATENATE(A2,".",C2,G2,"@yopmail.com")</f>
-        <v>Juan.Lopez1070420584@yopmail.com</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="juan.lopez1@yopmail.com"/>
-    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -661,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -691,13 +723,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -709,7 +741,7 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -744,7 +776,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>899999114</v>
@@ -762,19 +794,19 @@
         <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -793,13 +825,13 @@
         <v>Americano899999114@yopmail.com</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="andres.torres@yopmail.com"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="P2" r:id="rId1" display="andres.torres@yopmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -807,11 +839,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,66 +866,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>999999</v>
       </c>
-      <c r="D2" s="2">
-        <v>25000</v>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -923,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -975,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -984,45 +1016,45 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2">
         <v>32123123123</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2">
         <v>999999</v>
@@ -1033,7 +1065,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1041,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1064,7 +1096,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1085,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -1099,28 +1131,28 @@
         <v>8600343137</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2">
         <v>32123123123</v>
@@ -1128,7 +1160,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1136,7 +1168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data Files/Datos.xlsx
+++ b/Data Files/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jefferson\Katalon Studio\Neocredito\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F678C0FD-679E-4150-8880-099B67428A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AC4822-A887-44C5-9C3C-EA798B59D049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Perez</t>
-  </si>
-  <si>
     <t>Mi123123@</t>
   </si>
   <si>
@@ -231,16 +228,19 @@
     <t>Katalon123@</t>
   </si>
   <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Alfredo</t>
-  </si>
-  <si>
-    <t>Alonso</t>
-  </si>
-  <si>
-    <t>correo2@yopmail.com</t>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>felipe</t>
+  </si>
+  <si>
+    <t>vargas</t>
+  </si>
+  <si>
+    <t>prieto</t>
+  </si>
+  <si>
+    <t>correo7@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -640,16 +640,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -658,13 +658,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>40205060</v>
+        <v>80506030</v>
       </c>
       <c r="H2">
         <v>3107579936</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2">
         <v>112</v>
@@ -679,7 +679,7 @@
         <v>67</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -723,13 +723,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -741,7 +741,7 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>899999114</v>
@@ -794,19 +794,19 @@
         <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -825,7 +825,7 @@
         <v>Americano899999114@yopmail.com</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -866,66 +866,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>999999</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -955,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -1016,45 +1016,45 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="I2">
         <v>32123123123</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2">
         <v>999999</v>
@@ -1096,7 +1096,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -1131,28 +1131,28 @@
         <v>8600343137</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2">
         <v>32123123123</v>
